--- a/model/results/mix4_ggpos_h2pos/v_inv_tech.xlsx
+++ b/model/results/mix4_ggpos_h2pos/v_inv_tech.xlsx
@@ -781,19 +781,19 @@
         <v>2022</v>
       </c>
       <c r="B3" t="n">
-        <v>606923076.9230806</v>
+        <v>606923076.9230773</v>
       </c>
       <c r="C3" t="n">
-        <v>606923076.9230807</v>
+        <v>789000000</v>
       </c>
       <c r="D3" t="n">
-        <v>606923076.923086</v>
+        <v>606923076.9230778</v>
       </c>
       <c r="E3" t="n">
-        <v>241500000.0000001</v>
+        <v>185769230.7692309</v>
       </c>
       <c r="F3" t="n">
-        <v>185769230.7692308</v>
+        <v>185769230.769231</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>12000000.00000001</v>
       </c>
       <c r="AI5" t="n">
-        <v>10200000.00000001</v>
+        <v>10199999.99999966</v>
       </c>
       <c r="AJ5" t="n">
         <v>10200000.00000001</v>
       </c>
       <c r="AK5" t="n">
-        <v>23999999.99999899</v>
+        <v>24000000.00000002</v>
       </c>
       <c r="AL5" t="n">
         <v>24000000.00000002</v>
@@ -1174,19 +1174,19 @@
         <v>2025</v>
       </c>
       <c r="B6" t="n">
-        <v>876666666.6666719</v>
+        <v>876666666.6666666</v>
       </c>
       <c r="C6" t="n">
-        <v>504623942.7402964</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>687123942.7402751</v>
       </c>
       <c r="E6" t="n">
-        <v>429333333.3333334</v>
+        <v>268333333.3333334</v>
       </c>
       <c r="F6" t="n">
-        <v>268333333.3333353</v>
+        <v>268333333.3333336</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>9000000</v>
       </c>
       <c r="AG6" t="n">
-        <v>126000000.0000002</v>
+        <v>126000000.0000025</v>
       </c>
       <c r="AH6" t="n">
-        <v>84000000.00000019</v>
+        <v>84000000.00000165</v>
       </c>
       <c r="AI6" t="n">
-        <v>71400000.00000013</v>
+        <v>71400000.00000142</v>
       </c>
       <c r="AJ6" t="n">
-        <v>71400000.00000013</v>
+        <v>71400000.00000142</v>
       </c>
       <c r="AK6" t="n">
-        <v>168000000.0000004</v>
+        <v>168000000.0000033</v>
       </c>
       <c r="AL6" t="n">
         <v>168000000.0000033</v>
       </c>
       <c r="AM6" t="n">
-        <v>71400000.00000013</v>
+        <v>71400000.00000142</v>
       </c>
       <c r="AN6" t="n">
-        <v>126000000.0000002</v>
+        <v>126000000.0000025</v>
       </c>
       <c r="AO6" t="n">
-        <v>71400000.00000013</v>
+        <v>71400000.00000142</v>
       </c>
       <c r="AP6" t="n">
-        <v>71400000.00000013</v>
+        <v>71400000.00000142</v>
       </c>
       <c r="AQ6" t="n">
-        <v>71400000.00000013</v>
+        <v>71400000.00000142</v>
       </c>
     </row>
     <row r="7">
@@ -1305,16 +1305,16 @@
         <v>2026</v>
       </c>
       <c r="B7" t="n">
-        <v>894200000</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>372042723.9263754</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>876666666.6666666</v>
+        <v>106639738.2413171</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>273700000</v>
       </c>
       <c r="F7" t="n">
         <v>273700000</v>
@@ -1436,13 +1436,13 @@
         <v>2027</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>894200000</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>876666666.6666666</v>
       </c>
       <c r="D8" t="n">
-        <v>894200000</v>
+        <v>82902985.68507436</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>894200000</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1591,31 +1591,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>81632653.06122448</v>
+        <v>81632653.06122614</v>
       </c>
       <c r="K9" t="n">
-        <v>13061224.48979598</v>
+        <v>13061224.48979592</v>
       </c>
       <c r="L9" t="n">
         <v>6530612.244897958</v>
       </c>
       <c r="M9" t="n">
-        <v>10612244.89795918</v>
+        <v>10612244.8979594</v>
       </c>
       <c r="N9" t="n">
         <v>7346938.775510202</v>
       </c>
       <c r="O9" t="n">
-        <v>36734693.87755101</v>
+        <v>36734693.8775508</v>
       </c>
       <c r="P9" t="n">
-        <v>65306122.44898037</v>
+        <v>65306122.44897958</v>
       </c>
       <c r="Q9" t="n">
-        <v>24489795.91836764</v>
+        <v>24489795.91836734</v>
       </c>
       <c r="R9" t="n">
-        <v>8163265.306122447</v>
+        <v>8163265.306122615</v>
       </c>
       <c r="S9" t="n">
         <v>42448979.59183672</v>
@@ -1627,10 +1627,10 @@
         <v>22040816.32653061</v>
       </c>
       <c r="V9" t="n">
-        <v>16326530.61224489</v>
+        <v>16326530.61224523</v>
       </c>
       <c r="W9" t="n">
-        <v>5714285.714285713</v>
+        <v>5714285.71428583</v>
       </c>
       <c r="X9" t="n">
         <v>35918367.34693877</v>
@@ -1639,7 +1639,7 @@
         <v>30204081.63265305</v>
       </c>
       <c r="Z9" t="n">
-        <v>16326530.61224489</v>
+        <v>16326530.61224523</v>
       </c>
       <c r="AA9" t="n">
         <v>81632.65306122447</v>
@@ -1648,7 +1648,7 @@
         <v>408163.2653061224</v>
       </c>
       <c r="AC9" t="n">
-        <v>9795918.367347028</v>
+        <v>9795918.367346937</v>
       </c>
       <c r="AD9" t="n">
         <v>2448979.591836734</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>894200000</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>894199999.9999914</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>273699999.9999998</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-5.783607121010185e-05</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.961240390206513e-05</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
